--- a/regionseng/2/environmental protection/environmental protection.xlsx
+++ b/regionseng/2/environmental protection/environmental protection.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Samegrelo-Zemo Svaneti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Emitted into the atmosphere (ths. tons)</t>
   </si>
   <si>
-    <t>Of which covered by forest* - 256 thousand hectares</t>
-  </si>
-  <si>
     <t>Volume of felled timber* (cubic metre)</t>
   </si>
   <si>
@@ -133,19 +130,23 @@
   <si>
     <t>Forest area* - 272 thousand hectares</t>
   </si>
+  <si>
+    <t>Of which covered by forest* - 255 thousand hectares</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
     <numFmt numFmtId="166" formatCode="#####\ ##0.0"/>
-    <numFmt numFmtId="168" formatCode="##\ ##0.0"/>
-    <numFmt numFmtId="169" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="167" formatCode="##\ ##0.0"/>
+    <numFmt numFmtId="168" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +227,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -303,9 +311,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -315,25 +320,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -343,12 +358,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,98 +664,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="2" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="12">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2015</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2016</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2017</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2018</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2019</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2020</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="13">
-        <v>2013</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2014</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2015</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2016</v>
-      </c>
-      <c r="F5" s="13">
-        <v>2017</v>
-      </c>
-      <c r="G5" s="13">
-        <v>2018</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2019</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="B6" s="9">
         <v>57709</v>
@@ -772,10 +795,16 @@
       <c r="I6" s="9">
         <v>53180</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="9">
+        <v>72678.8</v>
+      </c>
+      <c r="K6" s="9">
+        <v>122921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9">
         <v>236</v>
@@ -801,86 +830,104 @@
       <c r="I7" s="9">
         <v>823</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="9">
+        <v>944.8</v>
+      </c>
+      <c r="K7" s="9">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>5.7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>6.1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>13.1</v>
       </c>
       <c r="E10" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="F10" s="10">
-        <v>52.6</v>
+        <v>53.3</v>
       </c>
       <c r="G10" s="10">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="H10" s="10">
         <v>35.200000000000003</v>
@@ -888,182 +935,247 @@
       <c r="I10" s="10">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="J10" s="10">
+        <v>32.1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>5.4</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="11">
-        <v>51.9</v>
-      </c>
-      <c r="G12" s="11">
-        <v>22</v>
-      </c>
-      <c r="H12" s="11">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="F12" s="10">
+        <v>52.4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I12" s="10">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="K12" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>0.6</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>0.7</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>1.2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>0.8</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
         <v>1.4</v>
       </c>
-      <c r="H13" s="14">
-        <v>2</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="H13" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="J13" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regionseng/2/environmental protection/environmental protection.xlsx
+++ b/regionseng/2/environmental protection/environmental protection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Samegrelo-Zemo Svaneti" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -664,19 +664,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
-    <col min="2" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" style="2" customWidth="1"/>
+    <col min="2" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
@@ -690,8 +690,9 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -703,8 +704,9 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
@@ -718,8 +720,9 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
@@ -733,8 +736,9 @@
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="12">
         <v>2013</v>
@@ -766,8 +770,11 @@
       <c r="K5" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="K6" s="9">
         <v>122921</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="9">
+        <v>110749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="K7" s="9">
         <v>839</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="9">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -871,8 +884,11 @@
       <c r="K8" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -906,8 +922,11 @@
       <c r="K9" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -941,8 +960,11 @@
       <c r="K10" s="10">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="10">
+        <v>189.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
@@ -956,8 +978,9 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1014,11 @@
       <c r="K12" s="10">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="10">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1052,11 @@
       <c r="K13" s="11">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
@@ -1041,8 +1070,9 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1086,9 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
@@ -1071,8 +1102,9 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1086,8 +1118,9 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
@@ -1101,64 +1134,65 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -1167,15 +1201,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
